--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/testToursParole.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/testToursParole.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F65DFF69-6108-486C-9DAA-DF451D582549}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Normalité Test" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="diffTour" sheetId="4" r:id="rId4"/>
     <sheet name="Resultats" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>Normalité</t>
   </si>
@@ -287,12 +281,18 @@
   </si>
   <si>
     <t>Ecart</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -646,7 +646,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-346A-4C37-9D6F-AC8A07367C29}"/>
             </c:ext>
@@ -693,13 +693,16 @@
               </c:numRef>
             </c:plus>
             <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
+              <c:numRef>
+                <c:f>tourParole!$H$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.9104157728638986</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
@@ -727,7 +730,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-346A-4C37-9D6F-AC8A07367C29}"/>
             </c:ext>
@@ -811,7 +814,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-346A-4C37-9D6F-AC8A07367C29}"/>
             </c:ext>
@@ -827,11 +830,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684103008"/>
-        <c:axId val="684106616"/>
+        <c:axId val="94339072"/>
+        <c:axId val="536717568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684103008"/>
+        <c:axId val="94339072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +844,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684106616"/>
+        <c:crossAx val="536717568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684106616"/>
+        <c:axId val="536717568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,6 +898,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -903,26 +907,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -955,7 +939,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684103008"/>
+        <c:crossAx val="94339072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,6 +953,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28568957529237993"/>
+          <c:y val="0.87883349769300334"/>
+          <c:w val="0.51222421653126582"/>
+          <c:h val="6.8441538202126631E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1000,14 +994,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1039,12 +1033,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1134,7 +1128,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1181,7 +1175,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6005-4F4D-B6BD-CABCD6064C9B}"/>
             </c:ext>
@@ -1226,7 +1220,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1273,7 +1267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6005-4F4D-B6BD-CABCD6064C9B}"/>
             </c:ext>
@@ -1318,7 +1312,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1365,7 +1359,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6005-4F4D-B6BD-CABCD6064C9B}"/>
             </c:ext>
@@ -1381,11 +1375,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29412820"/>
-        <c:axId val="87408848"/>
+        <c:axId val="517955584"/>
+        <c:axId val="536719872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29412820"/>
+        <c:axId val="517955584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1389,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87408848"/>
+        <c:crossAx val="536719872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1397,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87408848"/>
+        <c:axId val="536719872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1442,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29412820"/>
+        <c:crossAx val="517955584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2039,23 +2033,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44F021B-B8E7-4137-AB9A-856216426128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F44F021B-B8E7-4137-AB9A-856216426128}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2086,7 @@
         <cdr:cNvPr id="2" name="Groupe 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2100,8 +2094,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1639570" y="502818"/>
-          <a:ext cx="849779" cy="355089"/>
+          <a:off x="1579789" y="509407"/>
+          <a:ext cx="818816" cy="359729"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="850722" cy="313429"/>
         </a:xfrm>
@@ -2111,7 +2105,7 @@
           <cdr:cNvPr id="3" name="Groupe 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -2130,7 +2124,7 @@
             <cdr:cNvPr id="5" name="Connecteur droit 4">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2165,7 +2159,7 @@
             <cdr:cNvPr id="6" name="Connecteur droit 5">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2200,7 +2194,7 @@
             <cdr:cNvPr id="7" name="Connecteur droit 6">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2236,7 +2230,7 @@
           <cdr:cNvPr id="4" name="ZoneTexte 3">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -2342,7 +2336,7 @@
         <cdr:cNvPr id="8" name="Groupe 7">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2350,8 +2344,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2523490" y="503744"/>
-          <a:ext cx="849779" cy="355088"/>
+          <a:off x="2431468" y="510346"/>
+          <a:ext cx="818816" cy="359729"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="850722" cy="313429"/>
         </a:xfrm>
@@ -2361,7 +2355,7 @@
           <cdr:cNvPr id="9" name="Groupe 8">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -2380,7 +2374,7 @@
             <cdr:cNvPr id="11" name="Connecteur droit 10">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2415,7 +2409,7 @@
             <cdr:cNvPr id="12" name="Connecteur droit 11">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2450,7 +2444,7 @@
             <cdr:cNvPr id="13" name="Connecteur droit 12">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2486,7 +2480,7 @@
           <cdr:cNvPr id="10" name="ZoneTexte 3">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -2592,7 +2586,7 @@
         <cdr:cNvPr id="14" name="Groupe 13">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2600,8 +2594,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1719580" y="254061"/>
-          <a:ext cx="1612265" cy="316808"/>
+          <a:off x="1656882" y="257396"/>
+          <a:ext cx="1553490" cy="320963"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="850722" cy="313429"/>
         </a:xfrm>
@@ -2611,7 +2605,7 @@
           <cdr:cNvPr id="15" name="Groupe 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -2630,7 +2624,7 @@
             <cdr:cNvPr id="17" name="Connecteur droit 16">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2665,7 +2659,7 @@
             <cdr:cNvPr id="18" name="Connecteur droit 17">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2700,7 +2694,7 @@
             <cdr:cNvPr id="19" name="Connecteur droit 18">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2736,7 +2730,7 @@
           <cdr:cNvPr id="16" name="ZoneTexte 3">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -2848,7 +2842,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3158,24 +3152,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="13.33203125"/>
+    <col min="1" max="1025" width="13.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8">
+    <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3198,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3209,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3261,7 +3255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -3284,7 +3278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3314,19 +3308,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="13.33203125"/>
+    <col min="1" max="1025" width="13.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8">
+    <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -3349,7 +3343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="5">
         <v>16</v>
       </c>
@@ -3378,7 +3372,7 @@
         <v>15.242424242424242</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.8">
+    <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="5">
         <v>17</v>
       </c>
@@ -3407,7 +3401,7 @@
         <v>5.5720748961243016</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.8">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="5">
         <v>19</v>
       </c>
@@ -3420,8 +3414,23 @@
       <c r="D4" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.8">
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <f>MIN(B2:B68)</f>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:I4" si="0">MIN(C2:C68)</f>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="5">
         <v>20</v>
       </c>
@@ -3434,8 +3443,23 @@
       <c r="D5" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.8">
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5">
+        <f>MAX(B2:B68)</f>
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <f>MAX(C2:C68)</f>
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <f>MAX(D2:D68)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -3449,7 +3473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.8">
+    <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -3463,7 +3487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.8">
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="5">
         <v>23</v>
       </c>
@@ -3477,7 +3501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="5">
         <v>24</v>
       </c>
@@ -3491,7 +3515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.8">
+    <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="5">
         <v>25</v>
       </c>
@@ -3505,7 +3529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.8">
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="5">
         <v>26</v>
       </c>
@@ -3519,7 +3543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.8">
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="5">
         <v>27</v>
       </c>
@@ -3533,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.8">
+    <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="5">
         <v>28</v>
       </c>
@@ -3547,7 +3571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.8">
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="5">
         <v>29</v>
       </c>
@@ -3561,7 +3585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.8">
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="5">
         <v>30</v>
       </c>
@@ -3575,7 +3599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.8">
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="5">
         <v>31</v>
       </c>
@@ -3589,7 +3613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="5">
         <v>32</v>
       </c>
@@ -3603,7 +3627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="5">
         <v>33</v>
       </c>
@@ -3617,7 +3641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="5">
         <v>34</v>
       </c>
@@ -3631,7 +3655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="5">
         <v>35</v>
       </c>
@@ -3645,7 +3669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="5">
         <v>36</v>
       </c>
@@ -3659,7 +3683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.8">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="5">
         <v>37</v>
       </c>
@@ -3673,7 +3697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="5">
         <v>38</v>
       </c>
@@ -3687,7 +3711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="5">
         <v>39</v>
       </c>
@@ -3701,7 +3725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.8">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="5">
         <v>40</v>
       </c>
@@ -3715,7 +3739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="5">
         <v>41</v>
       </c>
@@ -3729,7 +3753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="5">
         <v>42</v>
       </c>
@@ -3743,7 +3767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="5">
         <v>43</v>
       </c>
@@ -3757,7 +3781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="5">
         <v>44</v>
       </c>
@@ -3771,7 +3795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="5">
         <v>45</v>
       </c>
@@ -3785,7 +3809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.8">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="5">
         <v>46</v>
       </c>
@@ -3799,7 +3823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.8">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="5">
         <v>47</v>
       </c>
@@ -3813,7 +3837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.8">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="5">
         <v>48</v>
       </c>
@@ -3827,7 +3851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.8">
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="5">
         <v>49</v>
       </c>
@@ -3841,7 +3865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.8">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="5">
         <v>50</v>
       </c>
@@ -3855,7 +3879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.8">
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="5">
         <v>51</v>
       </c>
@@ -3869,7 +3893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.8">
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="5">
         <v>52</v>
       </c>
@@ -3883,7 +3907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.8">
+    <row r="38" spans="1:4" ht="14.25">
       <c r="A38" s="5">
         <v>53</v>
       </c>
@@ -3897,7 +3921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.8">
+    <row r="39" spans="1:4" ht="14.25">
       <c r="A39" s="5">
         <v>54</v>
       </c>
@@ -3911,7 +3935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.8">
+    <row r="40" spans="1:4" ht="14.25">
       <c r="A40" s="5">
         <v>55</v>
       </c>
@@ -3925,7 +3949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8">
+    <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="5">
         <v>56</v>
       </c>
@@ -3939,7 +3963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.8">
+    <row r="42" spans="1:4" ht="14.25">
       <c r="A42" s="5">
         <v>57</v>
       </c>
@@ -3953,7 +3977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.8">
+    <row r="43" spans="1:4" ht="14.25">
       <c r="A43" s="5">
         <v>58</v>
       </c>
@@ -3967,7 +3991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.8">
+    <row r="44" spans="1:4" ht="14.25">
       <c r="A44" s="5">
         <v>59</v>
       </c>
@@ -3981,7 +4005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8">
+    <row r="45" spans="1:4" ht="14.25">
       <c r="A45" s="5">
         <v>60</v>
       </c>
@@ -3995,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.8">
+    <row r="46" spans="1:4" ht="14.25">
       <c r="A46" s="5">
         <v>61</v>
       </c>
@@ -4009,7 +4033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.8">
+    <row r="47" spans="1:4" ht="14.25">
       <c r="A47" s="5">
         <v>62</v>
       </c>
@@ -4023,7 +4047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.8">
+    <row r="48" spans="1:4" ht="14.25">
       <c r="A48" s="5">
         <v>63</v>
       </c>
@@ -4037,7 +4061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.8">
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="5">
         <v>64</v>
       </c>
@@ -4051,7 +4075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.8">
+    <row r="50" spans="1:4" ht="14.25">
       <c r="A50" s="5">
         <v>65</v>
       </c>
@@ -4065,7 +4089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8">
+    <row r="51" spans="1:4" ht="14.25">
       <c r="A51" s="5">
         <v>66</v>
       </c>
@@ -4079,7 +4103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.8">
+    <row r="52" spans="1:4" ht="14.25">
       <c r="A52" s="5">
         <v>67</v>
       </c>
@@ -4093,7 +4117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.8">
+    <row r="53" spans="1:4" ht="14.25">
       <c r="A53" s="5">
         <v>68</v>
       </c>
@@ -4107,7 +4131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.8">
+    <row r="54" spans="1:4" ht="14.25">
       <c r="A54" s="5">
         <v>69</v>
       </c>
@@ -4121,7 +4145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.8">
+    <row r="55" spans="1:4" ht="14.25">
       <c r="A55" s="5">
         <v>70</v>
       </c>
@@ -4135,7 +4159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.8">
+    <row r="56" spans="1:4" ht="14.25">
       <c r="A56" s="5">
         <v>71</v>
       </c>
@@ -4149,7 +4173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.8">
+    <row r="57" spans="1:4" ht="14.25">
       <c r="A57" s="5">
         <v>72</v>
       </c>
@@ -4163,7 +4187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.8">
+    <row r="58" spans="1:4" ht="14.25">
       <c r="A58" s="5">
         <v>73</v>
       </c>
@@ -4177,7 +4201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.8">
+    <row r="59" spans="1:4" ht="14.25">
       <c r="A59" s="5">
         <v>74</v>
       </c>
@@ -4191,7 +4215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.8">
+    <row r="60" spans="1:4" ht="14.25">
       <c r="A60" s="5">
         <v>75</v>
       </c>
@@ -4205,7 +4229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.8">
+    <row r="61" spans="1:4" ht="14.25">
       <c r="A61" s="5">
         <v>76</v>
       </c>
@@ -4219,7 +4243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.8">
+    <row r="62" spans="1:4" ht="14.25">
       <c r="A62" s="5">
         <v>77</v>
       </c>
@@ -4233,7 +4257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.8">
+    <row r="63" spans="1:4" ht="14.25">
       <c r="A63" s="5">
         <v>79</v>
       </c>
@@ -4247,7 +4271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.8">
+    <row r="64" spans="1:4" ht="14.25">
       <c r="A64" s="5">
         <v>75</v>
       </c>
@@ -4261,7 +4285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.8">
+    <row r="65" spans="1:4" ht="14.25">
       <c r="A65" s="5">
         <v>76</v>
       </c>
@@ -4275,7 +4299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.8">
+    <row r="66" spans="1:4" ht="14.25">
       <c r="A66" s="5">
         <v>77</v>
       </c>
@@ -4289,7 +4313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.8">
+    <row r="67" spans="1:4" ht="14.25">
       <c r="A67" s="5">
         <v>78</v>
       </c>
@@ -4303,7 +4327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.8">
+    <row r="68" spans="1:4" ht="14.25">
       <c r="A68" s="5">
         <v>79</v>
       </c>
@@ -4325,14 +4349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="10.5"/>
+    <col min="1" max="1025" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4463,20 +4487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.109375"/>
-    <col min="2" max="2" width="19.1640625"/>
-    <col min="3" max="3" width="21.1640625"/>
-    <col min="4" max="1025" width="13.33203125"/>
+    <col min="1" max="1" width="18.140625"/>
+    <col min="2" max="2" width="19.140625"/>
+    <col min="3" max="3" width="21.140625"/>
+    <col min="4" max="1025" width="13.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -4492,7 +4516,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="13.8">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="9">
         <v>11</v>
       </c>
@@ -4506,7 +4530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="9">
         <v>-11</v>
       </c>
@@ -4520,7 +4544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8">
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="9">
         <v>11</v>
       </c>
@@ -4534,7 +4558,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="9">
         <v>9</v>
       </c>
@@ -4548,7 +4572,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -4562,7 +4586,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="9">
         <v>20</v>
       </c>
@@ -4576,7 +4600,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="9">
         <v>11</v>
       </c>
@@ -4590,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -4604,7 +4628,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="9">
         <v>-15</v>
       </c>
@@ -4618,7 +4642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="9">
         <v>0</v>
       </c>
@@ -4632,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="9">
         <v>0</v>
       </c>
@@ -4646,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="9">
         <v>3</v>
       </c>
@@ -4660,7 +4684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="9">
         <v>-2</v>
       </c>
@@ -4674,7 +4698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -4688,7 +4712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -4702,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="9">
         <v>-2</v>
       </c>
@@ -4716,7 +4740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="9">
         <v>-5</v>
       </c>
@@ -4730,7 +4754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -4744,7 +4768,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="9">
         <v>-5</v>
       </c>
@@ -4758,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="9">
         <v>-6</v>
       </c>
@@ -4772,7 +4796,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.8">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="9">
         <v>12</v>
       </c>
@@ -4786,7 +4810,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="9">
         <v>7</v>
       </c>
@@ -4800,7 +4824,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="9">
         <v>-2</v>
       </c>
@@ -4814,7 +4838,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.8">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -4828,7 +4852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="9">
         <v>11</v>
       </c>
@@ -4842,7 +4866,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="9">
         <v>-4</v>
       </c>
@@ -4856,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -4870,7 +4894,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="9">
         <v>7</v>
       </c>
@@ -4884,7 +4908,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="9">
         <v>-2</v>
       </c>
@@ -4898,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.8">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="9">
         <v>17</v>
       </c>
@@ -4912,7 +4936,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.8">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="9">
         <v>2</v>
       </c>
@@ -4926,7 +4950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.8">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="9">
         <v>6</v>
       </c>
@@ -4940,7 +4964,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.8">
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="9">
         <v>6</v>
       </c>
@@ -4954,7 +4978,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.8">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="9">
         <v>13</v>
       </c>
@@ -4968,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.8">
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="9">
         <v>7</v>
       </c>
@@ -4982,7 +5006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.8">
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -4996,7 +5020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.8">
+    <row r="38" spans="1:4" ht="14.25">
       <c r="A38" s="9">
         <v>16</v>
       </c>
@@ -5010,7 +5034,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.8">
+    <row r="39" spans="1:4" ht="14.25">
       <c r="A39" s="9">
         <v>8</v>
       </c>
@@ -5024,7 +5048,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.8">
+    <row r="40" spans="1:4" ht="14.25">
       <c r="A40" s="9">
         <v>-12</v>
       </c>
@@ -5038,7 +5062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8">
+    <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="9">
         <v>6</v>
       </c>
@@ -5052,7 +5076,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.8">
+    <row r="42" spans="1:4" ht="14.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
@@ -5066,7 +5090,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.8">
+    <row r="43" spans="1:4" ht="14.25">
       <c r="A43" s="9">
         <v>1</v>
       </c>
@@ -5080,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.8">
+    <row r="44" spans="1:4" ht="14.25">
       <c r="A44" s="9">
         <v>-4</v>
       </c>
@@ -5094,7 +5118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8">
+    <row r="45" spans="1:4" ht="14.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
@@ -5108,7 +5132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.8">
+    <row r="46" spans="1:4" ht="14.25">
       <c r="A46" s="9">
         <v>4</v>
       </c>
@@ -5122,7 +5146,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.8">
+    <row r="47" spans="1:4" ht="14.25">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -5136,7 +5160,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.8">
+    <row r="48" spans="1:4" ht="14.25">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -5150,7 +5174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.8">
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="9">
         <v>2</v>
       </c>
@@ -5164,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.8">
+    <row r="50" spans="1:4" ht="14.25">
       <c r="A50" s="9">
         <v>3</v>
       </c>
@@ -5178,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8">
+    <row r="51" spans="1:4" ht="14.25">
       <c r="A51" s="9">
         <v>-6</v>
       </c>
@@ -5192,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.8">
+    <row r="52" spans="1:4" ht="14.25">
       <c r="A52" s="9">
         <v>11</v>
       </c>
@@ -5206,7 +5230,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.8">
+    <row r="53" spans="1:4" ht="14.25">
       <c r="A53" s="9">
         <v>16</v>
       </c>
@@ -5220,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.8">
+    <row r="54" spans="1:4" ht="14.25">
       <c r="A54" s="9">
         <v>18</v>
       </c>
@@ -5234,7 +5258,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.8">
+    <row r="55" spans="1:4" ht="14.25">
       <c r="A55" s="9">
         <v>-4</v>
       </c>
@@ -5248,7 +5272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.8">
+    <row r="56" spans="1:4" ht="14.25">
       <c r="A56" s="9">
         <v>-2</v>
       </c>
@@ -5262,7 +5286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.8">
+    <row r="57" spans="1:4" ht="14.25">
       <c r="A57" s="9">
         <v>3</v>
       </c>
@@ -5276,7 +5300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.8">
+    <row r="58" spans="1:4" ht="14.25">
       <c r="A58" s="9">
         <v>-1</v>
       </c>
@@ -5290,7 +5314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.8">
+    <row r="59" spans="1:4" ht="14.25">
       <c r="A59" s="9">
         <v>-16</v>
       </c>
@@ -5304,7 +5328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.8">
+    <row r="60" spans="1:4" ht="14.25">
       <c r="A60" s="9">
         <v>1</v>
       </c>
@@ -5318,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.8">
+    <row r="61" spans="1:4" ht="14.25">
       <c r="A61" s="9">
         <v>17</v>
       </c>
@@ -5332,7 +5356,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.8">
+    <row r="62" spans="1:4" ht="14.25">
       <c r="A62" s="9">
         <v>-1</v>
       </c>
@@ -5346,7 +5370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.8">
+    <row r="63" spans="1:4" ht="14.25">
       <c r="A63" s="9">
         <v>-9</v>
       </c>
@@ -5360,7 +5384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.8">
+    <row r="64" spans="1:4" ht="14.25">
       <c r="A64" s="9">
         <v>1</v>
       </c>
@@ -5374,7 +5398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.8">
+    <row r="65" spans="1:4" ht="14.25">
       <c r="A65" s="9">
         <v>12</v>
       </c>
@@ -5388,7 +5412,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.8">
+    <row r="66" spans="1:4" ht="14.25">
       <c r="A66" s="9">
         <v>-1</v>
       </c>
@@ -5402,7 +5426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.8">
+    <row r="67" spans="1:4" ht="14.25">
       <c r="A67" s="9">
         <v>18</v>
       </c>
@@ -5416,7 +5440,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.8">
+    <row r="68" spans="1:4" ht="14.25">
       <c r="A68" s="9">
         <v>-9</v>
       </c>
@@ -5437,25 +5461,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.5546875"/>
-    <col min="2" max="2" width="16.44140625"/>
+    <col min="1" max="1" width="14.5703125"/>
+    <col min="2" max="2" width="16.42578125"/>
     <col min="3" max="3" width="17"/>
-    <col min="4" max="4" width="18.33203125"/>
-    <col min="5" max="5" width="16.71875"/>
-    <col min="6" max="6" width="29.71875"/>
-    <col min="7" max="1025" width="11.21875"/>
+    <col min="4" max="4" width="18.28515625"/>
+    <col min="5" max="5" width="16.7109375"/>
+    <col min="6" max="6" width="29.7109375"/>
+    <col min="7" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -5471,7 +5495,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="13.8">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="11">
         <f>AVERAGE(diffTour!A2:A68)</f>
         <v>3.3283582089552239</v>
@@ -5491,7 +5515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="13">
         <f>STDEV(diffTour!A2:A68)</f>
         <v>8.1786641490943737</v>
@@ -5512,14 +5536,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8">
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
@@ -5539,7 +5563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -5559,7 +5583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="17" t="s">
         <v>67</v>
       </c>
@@ -5579,7 +5603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/testToursParole.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/testToursParole.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{00A41162-F29E-44FE-9176-E61F1EE0F311}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalité Test" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="diffTour" sheetId="4" r:id="rId4"/>
     <sheet name="Resultats" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Normalité</t>
   </si>
@@ -281,18 +287,12 @@
   </si>
   <si>
     <t>Ecart</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -646,7 +646,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-346A-4C37-9D6F-AC8A07367C29}"/>
             </c:ext>
@@ -693,16 +693,13 @@
               </c:numRef>
             </c:plus>
             <c:minus>
-              <c:numRef>
-                <c:f>tourParole!$H$3</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>6.9104157728638986</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
             </c:minus>
             <c:spPr>
               <a:noFill/>
@@ -730,7 +727,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-346A-4C37-9D6F-AC8A07367C29}"/>
             </c:ext>
@@ -814,7 +811,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-346A-4C37-9D6F-AC8A07367C29}"/>
             </c:ext>
@@ -830,11 +827,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="94339072"/>
-        <c:axId val="536717568"/>
+        <c:axId val="684103008"/>
+        <c:axId val="684106616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94339072"/>
+        <c:axId val="684103008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +841,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536717568"/>
+        <c:crossAx val="684106616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536717568"/>
+        <c:axId val="684106616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +895,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -907,6 +903,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -939,7 +955,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94339072"/>
+        <c:crossAx val="684103008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -953,16 +969,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28568957529237993"/>
-          <c:y val="0.87883349769300334"/>
-          <c:w val="0.51222421653126582"/>
-          <c:h val="6.8441538202126631E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -994,14 +1000,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1033,12 +1039,11 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1128,7 +1133,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1175,7 +1180,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6005-4F4D-B6BD-CABCD6064C9B}"/>
             </c:ext>
@@ -1220,7 +1225,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1267,7 +1272,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6005-4F4D-B6BD-CABCD6064C9B}"/>
             </c:ext>
@@ -1312,7 +1317,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1359,7 +1364,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6005-4F4D-B6BD-CABCD6064C9B}"/>
             </c:ext>
@@ -1375,11 +1380,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="517955584"/>
-        <c:axId val="536719872"/>
+        <c:axId val="29412820"/>
+        <c:axId val="87408848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="517955584"/>
+        <c:axId val="29412820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1394,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536719872"/>
+        <c:crossAx val="87408848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1397,7 +1402,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536719872"/>
+        <c:axId val="87408848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1447,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517955584"/>
+        <c:crossAx val="29412820"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2033,23 +2038,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142399</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>59056</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F44F021B-B8E7-4137-AB9A-856216426128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44F021B-B8E7-4137-AB9A-856216426128}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,758 +2076,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.35861</cdr:x>
-      <cdr:y>0.16268</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.54448</cdr:x>
-      <cdr:y>0.27756</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="2" name="Groupe 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1579789" y="509407"/>
-          <a:ext cx="818816" cy="359729"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="850722" cy="313429"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:grpSp>
-        <cdr:nvGrpSpPr>
-          <cdr:cNvPr id="3" name="Groupe 2">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvGrpSpPr/>
-        </cdr:nvGrpSpPr>
-        <cdr:grpSpPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="184709"/>
-            <a:ext cx="850722" cy="128720"/>
-            <a:chOff x="0" y="185723"/>
-            <a:chExt cx="849779" cy="129426"/>
-          </a:xfrm>
-        </cdr:grpSpPr>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="5" name="Connecteur droit 4">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="0" y="187148"/>
-              <a:ext cx="849779" cy="7957"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="6" name="Connecteur droit 5">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="1319" y="185723"/>
-              <a:ext cx="3643" cy="120665"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="7" name="Connecteur droit 6">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="846447" y="188534"/>
-              <a:ext cx="3205" cy="126615"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-      </cdr:grpSp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="4" name="ZoneTexte 3">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="285799" y="0"/>
-            <a:ext cx="179586" cy="178409"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1"/>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.55194</cdr:x>
-      <cdr:y>0.16298</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.73781</cdr:x>
-      <cdr:y>0.27786</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="8" name="Groupe 7">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2431468" y="510346"/>
-          <a:ext cx="818816" cy="359729"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="850722" cy="313429"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:grpSp>
-        <cdr:nvGrpSpPr>
-          <cdr:cNvPr id="9" name="Groupe 8">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvGrpSpPr/>
-        </cdr:nvGrpSpPr>
-        <cdr:grpSpPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="184709"/>
-            <a:ext cx="850722" cy="128720"/>
-            <a:chOff x="0" y="185723"/>
-            <a:chExt cx="849779" cy="129426"/>
-          </a:xfrm>
-        </cdr:grpSpPr>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="11" name="Connecteur droit 10">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="0" y="187148"/>
-              <a:ext cx="849779" cy="7957"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="12" name="Connecteur droit 11">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="1319" y="185723"/>
-              <a:ext cx="3643" cy="120665"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="13" name="Connecteur droit 12">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="846447" y="188534"/>
-              <a:ext cx="3205" cy="126615"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-      </cdr:grpSp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="10" name="ZoneTexte 3">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="285799" y="0"/>
-            <a:ext cx="179586" cy="178409"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1"/>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.37611</cdr:x>
-      <cdr:y>0.0822</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.72875</cdr:x>
-      <cdr:y>0.1847</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="14" name="Groupe 13">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D5B2F6-B8EE-459C-B32E-C87C611B1AB7}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1656882" y="257396"/>
-          <a:ext cx="1553490" cy="320963"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="850722" cy="313429"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:grpSp>
-        <cdr:nvGrpSpPr>
-          <cdr:cNvPr id="15" name="Groupe 14">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA07166-4475-452B-8717-416B2F100D37}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvGrpSpPr/>
-        </cdr:nvGrpSpPr>
-        <cdr:grpSpPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="184709"/>
-            <a:ext cx="850722" cy="128720"/>
-            <a:chOff x="0" y="185723"/>
-            <a:chExt cx="849779" cy="129426"/>
-          </a:xfrm>
-        </cdr:grpSpPr>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="17" name="Connecteur droit 16">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C734A34-8240-4269-B298-DF4F9AF59F3F}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="0" y="187148"/>
-              <a:ext cx="849779" cy="7957"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="18" name="Connecteur droit 17">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B52DEE62-D68F-4721-91CD-F8F616A8321B}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="1319" y="185723"/>
-              <a:ext cx="3643" cy="120665"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="19" name="Connecteur droit 18">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2256B6E9-9E62-491C-927F-D97CBACCCD9D}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="846447" y="188534"/>
-              <a:ext cx="3205" cy="126615"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-      </cdr:grpSp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="16" name="ZoneTexte 3">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8948AE3-CC1F-4194-95C6-0620E08C5871}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="285799" y="0"/>
-            <a:ext cx="179586" cy="178409"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="fr-FR" sz="1400" b="1"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2842,7 +2095,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,24 +2405,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1025" width="13.28515625"/>
+    <col min="1" max="1025" width="13.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
+    <row r="1" spans="1:7" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3192,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:7" ht="13.8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +2462,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +2485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:7" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3255,7 +2508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -3278,7 +2531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3308,19 +2561,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1025" width="13.28515625"/>
+    <col min="1" max="1025" width="13.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:9" ht="13.8">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -3343,7 +2596,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="13.8">
       <c r="A2" s="5">
         <v>16</v>
       </c>
@@ -3372,7 +2625,7 @@
         <v>15.242424242424242</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
+    <row r="3" spans="1:9" ht="13.8">
       <c r="A3" s="5">
         <v>17</v>
       </c>
@@ -3401,7 +2654,7 @@
         <v>5.5720748961243016</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9" ht="13.8">
       <c r="A4" s="5">
         <v>19</v>
       </c>
@@ -3414,23 +2667,8 @@
       <c r="D4" s="5">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4">
-        <f>MIN(B2:B68)</f>
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:I4" si="0">MIN(C2:C68)</f>
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25">
+    </row>
+    <row r="5" spans="1:9" ht="13.8">
       <c r="A5" s="5">
         <v>20</v>
       </c>
@@ -3443,23 +2681,8 @@
       <c r="D5" s="5">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5">
-        <f>MAX(B2:B68)</f>
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <f>MAX(C2:C68)</f>
-        <v>35</v>
-      </c>
-      <c r="I5">
-        <f>MAX(D2:D68)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
+    </row>
+    <row r="6" spans="1:9" ht="13.8">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -3473,7 +2696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:9" ht="13.8">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -3487,7 +2710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
+    <row r="8" spans="1:9" ht="13.8">
       <c r="A8" s="5">
         <v>23</v>
       </c>
@@ -3501,7 +2724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="13.8">
       <c r="A9" s="5">
         <v>24</v>
       </c>
@@ -3515,7 +2738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25">
+    <row r="10" spans="1:9" ht="13.8">
       <c r="A10" s="5">
         <v>25</v>
       </c>
@@ -3529,7 +2752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25">
+    <row r="11" spans="1:9" ht="13.8">
       <c r="A11" s="5">
         <v>26</v>
       </c>
@@ -3543,7 +2766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25">
+    <row r="12" spans="1:9" ht="13.8">
       <c r="A12" s="5">
         <v>27</v>
       </c>
@@ -3557,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25">
+    <row r="13" spans="1:9" ht="13.8">
       <c r="A13" s="5">
         <v>28</v>
       </c>
@@ -3571,7 +2794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25">
+    <row r="14" spans="1:9" ht="13.8">
       <c r="A14" s="5">
         <v>29</v>
       </c>
@@ -3585,7 +2808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25">
+    <row r="15" spans="1:9" ht="13.8">
       <c r="A15" s="5">
         <v>30</v>
       </c>
@@ -3599,7 +2822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25">
+    <row r="16" spans="1:9" ht="13.8">
       <c r="A16" s="5">
         <v>31</v>
       </c>
@@ -3613,7 +2836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="5">
         <v>32</v>
       </c>
@@ -3627,7 +2850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="5">
         <v>33</v>
       </c>
@@ -3641,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="5">
         <v>34</v>
       </c>
@@ -3655,7 +2878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="5">
         <v>35</v>
       </c>
@@ -3669,7 +2892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="5">
         <v>36</v>
       </c>
@@ -3683,7 +2906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="5">
         <v>37</v>
       </c>
@@ -3697,7 +2920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="5">
         <v>38</v>
       </c>
@@ -3711,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="5">
         <v>39</v>
       </c>
@@ -3725,7 +2948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25">
+    <row r="25" spans="1:4" ht="13.8">
       <c r="A25" s="5">
         <v>40</v>
       </c>
@@ -3739,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
+    <row r="26" spans="1:4" ht="13.8">
       <c r="A26" s="5">
         <v>41</v>
       </c>
@@ -3753,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25">
+    <row r="27" spans="1:4" ht="13.8">
       <c r="A27" s="5">
         <v>42</v>
       </c>
@@ -3767,7 +2990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="5">
         <v>43</v>
       </c>
@@ -3781,7 +3004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.25">
+    <row r="29" spans="1:4" ht="13.8">
       <c r="A29" s="5">
         <v>44</v>
       </c>
@@ -3795,7 +3018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
+    <row r="30" spans="1:4" ht="13.8">
       <c r="A30" s="5">
         <v>45</v>
       </c>
@@ -3809,7 +3032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
+    <row r="31" spans="1:4" ht="13.8">
       <c r="A31" s="5">
         <v>46</v>
       </c>
@@ -3823,7 +3046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.25">
+    <row r="32" spans="1:4" ht="13.8">
       <c r="A32" s="5">
         <v>47</v>
       </c>
@@ -3837,7 +3060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25">
+    <row r="33" spans="1:4" ht="13.8">
       <c r="A33" s="5">
         <v>48</v>
       </c>
@@ -3851,7 +3074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25">
+    <row r="34" spans="1:4" ht="13.8">
       <c r="A34" s="5">
         <v>49</v>
       </c>
@@ -3865,7 +3088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25">
+    <row r="35" spans="1:4" ht="13.8">
       <c r="A35" s="5">
         <v>50</v>
       </c>
@@ -3879,7 +3102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25">
+    <row r="36" spans="1:4" ht="13.8">
       <c r="A36" s="5">
         <v>51</v>
       </c>
@@ -3893,7 +3116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25">
+    <row r="37" spans="1:4" ht="13.8">
       <c r="A37" s="5">
         <v>52</v>
       </c>
@@ -3907,7 +3130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25">
+    <row r="38" spans="1:4" ht="13.8">
       <c r="A38" s="5">
         <v>53</v>
       </c>
@@ -3921,7 +3144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25">
+    <row r="39" spans="1:4" ht="13.8">
       <c r="A39" s="5">
         <v>54</v>
       </c>
@@ -3935,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.25">
+    <row r="40" spans="1:4" ht="13.8">
       <c r="A40" s="5">
         <v>55</v>
       </c>
@@ -3949,7 +3172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.25">
+    <row r="41" spans="1:4" ht="13.8">
       <c r="A41" s="5">
         <v>56</v>
       </c>
@@ -3963,7 +3186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.25">
+    <row r="42" spans="1:4" ht="13.8">
       <c r="A42" s="5">
         <v>57</v>
       </c>
@@ -3977,7 +3200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.25">
+    <row r="43" spans="1:4" ht="13.8">
       <c r="A43" s="5">
         <v>58</v>
       </c>
@@ -3991,7 +3214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.25">
+    <row r="44" spans="1:4" ht="13.8">
       <c r="A44" s="5">
         <v>59</v>
       </c>
@@ -4005,7 +3228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.25">
+    <row r="45" spans="1:4" ht="13.8">
       <c r="A45" s="5">
         <v>60</v>
       </c>
@@ -4019,7 +3242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.25">
+    <row r="46" spans="1:4" ht="13.8">
       <c r="A46" s="5">
         <v>61</v>
       </c>
@@ -4033,7 +3256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.25">
+    <row r="47" spans="1:4" ht="13.8">
       <c r="A47" s="5">
         <v>62</v>
       </c>
@@ -4047,7 +3270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.25">
+    <row r="48" spans="1:4" ht="13.8">
       <c r="A48" s="5">
         <v>63</v>
       </c>
@@ -4061,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.25">
+    <row r="49" spans="1:4" ht="13.8">
       <c r="A49" s="5">
         <v>64</v>
       </c>
@@ -4075,7 +3298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.25">
+    <row r="50" spans="1:4" ht="13.8">
       <c r="A50" s="5">
         <v>65</v>
       </c>
@@ -4089,7 +3312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.25">
+    <row r="51" spans="1:4" ht="13.8">
       <c r="A51" s="5">
         <v>66</v>
       </c>
@@ -4103,7 +3326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.25">
+    <row r="52" spans="1:4" ht="13.8">
       <c r="A52" s="5">
         <v>67</v>
       </c>
@@ -4117,7 +3340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.25">
+    <row r="53" spans="1:4" ht="13.8">
       <c r="A53" s="5">
         <v>68</v>
       </c>
@@ -4131,7 +3354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.25">
+    <row r="54" spans="1:4" ht="13.8">
       <c r="A54" s="5">
         <v>69</v>
       </c>
@@ -4145,7 +3368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.25">
+    <row r="55" spans="1:4" ht="13.8">
       <c r="A55" s="5">
         <v>70</v>
       </c>
@@ -4159,7 +3382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.25">
+    <row r="56" spans="1:4" ht="13.8">
       <c r="A56" s="5">
         <v>71</v>
       </c>
@@ -4173,7 +3396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.25">
+    <row r="57" spans="1:4" ht="13.8">
       <c r="A57" s="5">
         <v>72</v>
       </c>
@@ -4187,7 +3410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.25">
+    <row r="58" spans="1:4" ht="13.8">
       <c r="A58" s="5">
         <v>73</v>
       </c>
@@ -4201,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.25">
+    <row r="59" spans="1:4" ht="13.8">
       <c r="A59" s="5">
         <v>74</v>
       </c>
@@ -4215,7 +3438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.25">
+    <row r="60" spans="1:4" ht="13.8">
       <c r="A60" s="5">
         <v>75</v>
       </c>
@@ -4229,7 +3452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.25">
+    <row r="61" spans="1:4" ht="13.8">
       <c r="A61" s="5">
         <v>76</v>
       </c>
@@ -4243,7 +3466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.25">
+    <row r="62" spans="1:4" ht="13.8">
       <c r="A62" s="5">
         <v>77</v>
       </c>
@@ -4257,7 +3480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.25">
+    <row r="63" spans="1:4" ht="13.8">
       <c r="A63" s="5">
         <v>79</v>
       </c>
@@ -4271,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.25">
+    <row r="64" spans="1:4" ht="13.8">
       <c r="A64" s="5">
         <v>75</v>
       </c>
@@ -4285,7 +3508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.25">
+    <row r="65" spans="1:4" ht="13.8">
       <c r="A65" s="5">
         <v>76</v>
       </c>
@@ -4299,7 +3522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.25">
+    <row r="66" spans="1:4" ht="13.8">
       <c r="A66" s="5">
         <v>77</v>
       </c>
@@ -4313,7 +3536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.25">
+    <row r="67" spans="1:4" ht="13.8">
       <c r="A67" s="5">
         <v>78</v>
       </c>
@@ -4327,7 +3550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.25">
+    <row r="68" spans="1:4" ht="13.8">
       <c r="A68" s="5">
         <v>79</v>
       </c>
@@ -4349,14 +3572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1025" width="10.42578125"/>
+    <col min="1" max="1025" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4487,20 +3710,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625"/>
-    <col min="2" max="2" width="19.140625"/>
-    <col min="3" max="3" width="21.140625"/>
-    <col min="4" max="1025" width="13.28515625"/>
+    <col min="1" max="1" width="18.109375"/>
+    <col min="2" max="2" width="19.1640625"/>
+    <col min="3" max="3" width="21.1640625"/>
+    <col min="4" max="1025" width="13.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" ht="13.8">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -4516,7 +3739,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" ht="13.8">
       <c r="A2" s="9">
         <v>11</v>
       </c>
@@ -4530,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="9">
         <v>-11</v>
       </c>
@@ -4544,7 +3767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6" ht="13.8">
       <c r="A4" s="9">
         <v>11</v>
       </c>
@@ -4558,7 +3781,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
+    <row r="5" spans="1:6" ht="13.8">
       <c r="A5" s="9">
         <v>9</v>
       </c>
@@ -4572,7 +3795,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -4586,7 +3809,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="9">
         <v>20</v>
       </c>
@@ -4600,7 +3823,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="9">
         <v>11</v>
       </c>
@@ -4614,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -4628,7 +3851,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="9">
         <v>-15</v>
       </c>
@@ -4642,7 +3865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="9">
         <v>0</v>
       </c>
@@ -4656,7 +3879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="9">
         <v>0</v>
       </c>
@@ -4670,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="9">
         <v>3</v>
       </c>
@@ -4684,7 +3907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="9">
         <v>-2</v>
       </c>
@@ -4698,7 +3921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -4712,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -4726,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="9">
         <v>-2</v>
       </c>
@@ -4740,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="9">
         <v>-5</v>
       </c>
@@ -4754,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -4768,7 +3991,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="9">
         <v>-5</v>
       </c>
@@ -4782,7 +4005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="9">
         <v>-6</v>
       </c>
@@ -4796,7 +4019,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="9">
         <v>12</v>
       </c>
@@ -4810,7 +4033,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="9">
         <v>7</v>
       </c>
@@ -4824,7 +4047,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="9">
         <v>-2</v>
       </c>
@@ -4838,7 +4061,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25">
+    <row r="25" spans="1:4" ht="13.8">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -4852,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
+    <row r="26" spans="1:4" ht="13.8">
       <c r="A26" s="9">
         <v>11</v>
       </c>
@@ -4866,7 +4089,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25">
+    <row r="27" spans="1:4" ht="13.8">
       <c r="A27" s="9">
         <v>-4</v>
       </c>
@@ -4880,7 +4103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -4894,7 +4117,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.25">
+    <row r="29" spans="1:4" ht="13.8">
       <c r="A29" s="9">
         <v>7</v>
       </c>
@@ -4908,7 +4131,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
+    <row r="30" spans="1:4" ht="13.8">
       <c r="A30" s="9">
         <v>-2</v>
       </c>
@@ -4922,7 +4145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
+    <row r="31" spans="1:4" ht="13.8">
       <c r="A31" s="9">
         <v>17</v>
       </c>
@@ -4936,7 +4159,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.25">
+    <row r="32" spans="1:4" ht="13.8">
       <c r="A32" s="9">
         <v>2</v>
       </c>
@@ -4950,7 +4173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25">
+    <row r="33" spans="1:4" ht="13.8">
       <c r="A33" s="9">
         <v>6</v>
       </c>
@@ -4964,7 +4187,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25">
+    <row r="34" spans="1:4" ht="13.8">
       <c r="A34" s="9">
         <v>6</v>
       </c>
@@ -4978,7 +4201,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25">
+    <row r="35" spans="1:4" ht="13.8">
       <c r="A35" s="9">
         <v>13</v>
       </c>
@@ -4992,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25">
+    <row r="36" spans="1:4" ht="13.8">
       <c r="A36" s="9">
         <v>7</v>
       </c>
@@ -5006,7 +4229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25">
+    <row r="37" spans="1:4" ht="13.8">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -5020,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25">
+    <row r="38" spans="1:4" ht="13.8">
       <c r="A38" s="9">
         <v>16</v>
       </c>
@@ -5034,7 +4257,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25">
+    <row r="39" spans="1:4" ht="13.8">
       <c r="A39" s="9">
         <v>8</v>
       </c>
@@ -5048,7 +4271,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.25">
+    <row r="40" spans="1:4" ht="13.8">
       <c r="A40" s="9">
         <v>-12</v>
       </c>
@@ -5062,7 +4285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.25">
+    <row r="41" spans="1:4" ht="13.8">
       <c r="A41" s="9">
         <v>6</v>
       </c>
@@ -5076,7 +4299,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.25">
+    <row r="42" spans="1:4" ht="13.8">
       <c r="A42" s="9">
         <v>4</v>
       </c>
@@ -5090,7 +4313,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.25">
+    <row r="43" spans="1:4" ht="13.8">
       <c r="A43" s="9">
         <v>1</v>
       </c>
@@ -5104,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.25">
+    <row r="44" spans="1:4" ht="13.8">
       <c r="A44" s="9">
         <v>-4</v>
       </c>
@@ -5118,7 +4341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.25">
+    <row r="45" spans="1:4" ht="13.8">
       <c r="A45" s="9">
         <v>7</v>
       </c>
@@ -5132,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.25">
+    <row r="46" spans="1:4" ht="13.8">
       <c r="A46" s="9">
         <v>4</v>
       </c>
@@ -5146,7 +4369,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.25">
+    <row r="47" spans="1:4" ht="13.8">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -5160,7 +4383,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.25">
+    <row r="48" spans="1:4" ht="13.8">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -5174,7 +4397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.25">
+    <row r="49" spans="1:4" ht="13.8">
       <c r="A49" s="9">
         <v>2</v>
       </c>
@@ -5188,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.25">
+    <row r="50" spans="1:4" ht="13.8">
       <c r="A50" s="9">
         <v>3</v>
       </c>
@@ -5202,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.25">
+    <row r="51" spans="1:4" ht="13.8">
       <c r="A51" s="9">
         <v>-6</v>
       </c>
@@ -5216,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.25">
+    <row r="52" spans="1:4" ht="13.8">
       <c r="A52" s="9">
         <v>11</v>
       </c>
@@ -5230,7 +4453,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.25">
+    <row r="53" spans="1:4" ht="13.8">
       <c r="A53" s="9">
         <v>16</v>
       </c>
@@ -5244,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.25">
+    <row r="54" spans="1:4" ht="13.8">
       <c r="A54" s="9">
         <v>18</v>
       </c>
@@ -5258,7 +4481,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.25">
+    <row r="55" spans="1:4" ht="13.8">
       <c r="A55" s="9">
         <v>-4</v>
       </c>
@@ -5272,7 +4495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.25">
+    <row r="56" spans="1:4" ht="13.8">
       <c r="A56" s="9">
         <v>-2</v>
       </c>
@@ -5286,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.25">
+    <row r="57" spans="1:4" ht="13.8">
       <c r="A57" s="9">
         <v>3</v>
       </c>
@@ -5300,7 +4523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.25">
+    <row r="58" spans="1:4" ht="13.8">
       <c r="A58" s="9">
         <v>-1</v>
       </c>
@@ -5314,7 +4537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.25">
+    <row r="59" spans="1:4" ht="13.8">
       <c r="A59" s="9">
         <v>-16</v>
       </c>
@@ -5328,7 +4551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.25">
+    <row r="60" spans="1:4" ht="13.8">
       <c r="A60" s="9">
         <v>1</v>
       </c>
@@ -5342,7 +4565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.25">
+    <row r="61" spans="1:4" ht="13.8">
       <c r="A61" s="9">
         <v>17</v>
       </c>
@@ -5356,7 +4579,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.25">
+    <row r="62" spans="1:4" ht="13.8">
       <c r="A62" s="9">
         <v>-1</v>
       </c>
@@ -5370,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.25">
+    <row r="63" spans="1:4" ht="13.8">
       <c r="A63" s="9">
         <v>-9</v>
       </c>
@@ -5384,7 +4607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.25">
+    <row r="64" spans="1:4" ht="13.8">
       <c r="A64" s="9">
         <v>1</v>
       </c>
@@ -5398,7 +4621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.25">
+    <row r="65" spans="1:4" ht="13.8">
       <c r="A65" s="9">
         <v>12</v>
       </c>
@@ -5412,7 +4635,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.25">
+    <row r="66" spans="1:4" ht="13.8">
       <c r="A66" s="9">
         <v>-1</v>
       </c>
@@ -5426,7 +4649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.25">
+    <row r="67" spans="1:4" ht="13.8">
       <c r="A67" s="9">
         <v>18</v>
       </c>
@@ -5440,7 +4663,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.25">
+    <row r="68" spans="1:4" ht="13.8">
       <c r="A68" s="9">
         <v>-9</v>
       </c>
@@ -5461,25 +4684,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125"/>
-    <col min="2" max="2" width="16.42578125"/>
+    <col min="1" max="1" width="14.5546875"/>
+    <col min="2" max="2" width="16.44140625"/>
     <col min="3" max="3" width="17"/>
-    <col min="4" max="4" width="18.28515625"/>
-    <col min="5" max="5" width="16.7109375"/>
-    <col min="6" max="6" width="29.7109375"/>
-    <col min="7" max="1025" width="11.28515625"/>
+    <col min="4" max="4" width="18.33203125"/>
+    <col min="5" max="5" width="16.71875"/>
+    <col min="6" max="6" width="29.71875"/>
+    <col min="7" max="1025" width="11.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" ht="13.8">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -5495,7 +4718,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" ht="13.8">
       <c r="A2" s="11">
         <f>AVERAGE(diffTour!A2:A68)</f>
         <v>3.3283582089552239</v>
@@ -5515,7 +4738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="13">
         <f>STDEV(diffTour!A2:A68)</f>
         <v>8.1786641490943737</v>
@@ -5536,14 +4759,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6" ht="13.8">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
+    <row r="5" spans="1:6" ht="13.8">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
@@ -5563,7 +4786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -5583,7 +4806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="17" t="s">
         <v>67</v>
       </c>
@@ -5603,7 +4826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/testToursParole.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/testToursParole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{00A41162-F29E-44FE-9176-E61F1EE0F311}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3ACD2C-893B-44A0-AC95-1AA1F49E3473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16387" windowHeight="8193" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalité Test" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>Normalité</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Ecart</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Similar</t>
   </si>
 </sst>
 </file>
@@ -661,7 +667,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Similaire</c:v>
+                  <c:v>Similar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -742,7 +748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neutre</c:v>
+                  <c:v>Neutral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2417,12 +2423,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1025" width="13.33203125"/>
+    <col min="1" max="1025" width="13.3515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8">
+    <row r="1" spans="1:7" ht="13.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8">
+    <row r="2" spans="1:7" ht="13.7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2468,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="13.7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8">
+    <row r="4" spans="1:7" ht="13.7">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8">
+    <row r="5" spans="1:7" ht="13.7">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="13.7">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2564,16 +2570,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1025" width="13.33203125"/>
+    <col min="1" max="1025" width="13.3515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8">
+    <row r="1" spans="1:9" ht="13.7">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -2590,13 +2596,13 @@
         <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.7">
       <c r="A2" s="5">
         <v>16</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>15.242424242424242</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.8">
+    <row r="3" spans="1:9" ht="13.7">
       <c r="A3" s="5">
         <v>17</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>5.5720748961243016</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.8">
+    <row r="4" spans="1:9" ht="13.7">
       <c r="A4" s="5">
         <v>19</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.8">
+    <row r="5" spans="1:9" ht="13.7">
       <c r="A5" s="5">
         <v>20</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.8">
+    <row r="6" spans="1:9" ht="13.7">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.8">
+    <row r="7" spans="1:9" ht="13.7">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.8">
+    <row r="8" spans="1:9" ht="13.7">
       <c r="A8" s="5">
         <v>23</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8">
+    <row r="9" spans="1:9" ht="13.7">
       <c r="A9" s="5">
         <v>24</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.8">
+    <row r="10" spans="1:9" ht="13.7">
       <c r="A10" s="5">
         <v>25</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.8">
+    <row r="11" spans="1:9" ht="13.7">
       <c r="A11" s="5">
         <v>26</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.8">
+    <row r="12" spans="1:9" ht="13.7">
       <c r="A12" s="5">
         <v>27</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.8">
+    <row r="13" spans="1:9" ht="13.7">
       <c r="A13" s="5">
         <v>28</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.8">
+    <row r="14" spans="1:9" ht="13.7">
       <c r="A14" s="5">
         <v>29</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.8">
+    <row r="15" spans="1:9" ht="13.7">
       <c r="A15" s="5">
         <v>30</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.8">
+    <row r="16" spans="1:9" ht="13.7">
       <c r="A16" s="5">
         <v>31</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="13.7">
       <c r="A17" s="5">
         <v>32</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="13.7">
       <c r="A18" s="5">
         <v>33</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8">
+    <row r="19" spans="1:4" ht="13.7">
       <c r="A19" s="5">
         <v>34</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8">
+    <row r="20" spans="1:4" ht="13.7">
       <c r="A20" s="5">
         <v>35</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8">
+    <row r="21" spans="1:4" ht="13.7">
       <c r="A21" s="5">
         <v>36</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.8">
+    <row r="22" spans="1:4" ht="13.7">
       <c r="A22" s="5">
         <v>37</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8">
+    <row r="23" spans="1:4" ht="13.7">
       <c r="A23" s="5">
         <v>38</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8">
+    <row r="24" spans="1:4" ht="13.7">
       <c r="A24" s="5">
         <v>39</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.8">
+    <row r="25" spans="1:4" ht="13.7">
       <c r="A25" s="5">
         <v>40</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8">
+    <row r="26" spans="1:4" ht="13.7">
       <c r="A26" s="5">
         <v>41</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8">
+    <row r="27" spans="1:4" ht="13.7">
       <c r="A27" s="5">
         <v>42</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8">
+    <row r="28" spans="1:4" ht="13.7">
       <c r="A28" s="5">
         <v>43</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8">
+    <row r="29" spans="1:4" ht="13.7">
       <c r="A29" s="5">
         <v>44</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8">
+    <row r="30" spans="1:4" ht="13.7">
       <c r="A30" s="5">
         <v>45</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.8">
+    <row r="31" spans="1:4" ht="13.7">
       <c r="A31" s="5">
         <v>46</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.8">
+    <row r="32" spans="1:4" ht="13.7">
       <c r="A32" s="5">
         <v>47</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.8">
+    <row r="33" spans="1:4" ht="13.7">
       <c r="A33" s="5">
         <v>48</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.8">
+    <row r="34" spans="1:4" ht="13.7">
       <c r="A34" s="5">
         <v>49</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.8">
+    <row r="35" spans="1:4" ht="13.7">
       <c r="A35" s="5">
         <v>50</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.8">
+    <row r="36" spans="1:4" ht="13.7">
       <c r="A36" s="5">
         <v>51</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.8">
+    <row r="37" spans="1:4" ht="13.7">
       <c r="A37" s="5">
         <v>52</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.8">
+    <row r="38" spans="1:4" ht="13.7">
       <c r="A38" s="5">
         <v>53</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.8">
+    <row r="39" spans="1:4" ht="13.7">
       <c r="A39" s="5">
         <v>54</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.8">
+    <row r="40" spans="1:4" ht="13.7">
       <c r="A40" s="5">
         <v>55</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8">
+    <row r="41" spans="1:4" ht="13.7">
       <c r="A41" s="5">
         <v>56</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.8">
+    <row r="42" spans="1:4" ht="13.7">
       <c r="A42" s="5">
         <v>57</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.8">
+    <row r="43" spans="1:4" ht="13.7">
       <c r="A43" s="5">
         <v>58</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.8">
+    <row r="44" spans="1:4" ht="13.7">
       <c r="A44" s="5">
         <v>59</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8">
+    <row r="45" spans="1:4" ht="13.7">
       <c r="A45" s="5">
         <v>60</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.8">
+    <row r="46" spans="1:4" ht="13.7">
       <c r="A46" s="5">
         <v>61</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.8">
+    <row r="47" spans="1:4" ht="13.7">
       <c r="A47" s="5">
         <v>62</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.8">
+    <row r="48" spans="1:4" ht="13.7">
       <c r="A48" s="5">
         <v>63</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.8">
+    <row r="49" spans="1:4" ht="13.7">
       <c r="A49" s="5">
         <v>64</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.8">
+    <row r="50" spans="1:4" ht="13.7">
       <c r="A50" s="5">
         <v>65</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8">
+    <row r="51" spans="1:4" ht="13.7">
       <c r="A51" s="5">
         <v>66</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.8">
+    <row r="52" spans="1:4" ht="13.7">
       <c r="A52" s="5">
         <v>67</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.8">
+    <row r="53" spans="1:4" ht="13.7">
       <c r="A53" s="5">
         <v>68</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.8">
+    <row r="54" spans="1:4" ht="13.7">
       <c r="A54" s="5">
         <v>69</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.8">
+    <row r="55" spans="1:4" ht="13.7">
       <c r="A55" s="5">
         <v>70</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.8">
+    <row r="56" spans="1:4" ht="13.7">
       <c r="A56" s="5">
         <v>71</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.8">
+    <row r="57" spans="1:4" ht="13.7">
       <c r="A57" s="5">
         <v>72</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.8">
+    <row r="58" spans="1:4" ht="13.7">
       <c r="A58" s="5">
         <v>73</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.8">
+    <row r="59" spans="1:4" ht="13.7">
       <c r="A59" s="5">
         <v>74</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.8">
+    <row r="60" spans="1:4" ht="13.7">
       <c r="A60" s="5">
         <v>75</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.8">
+    <row r="61" spans="1:4" ht="13.7">
       <c r="A61" s="5">
         <v>76</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.8">
+    <row r="62" spans="1:4" ht="13.7">
       <c r="A62" s="5">
         <v>77</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.8">
+    <row r="63" spans="1:4" ht="13.7">
       <c r="A63" s="5">
         <v>79</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.8">
+    <row r="64" spans="1:4" ht="13.7">
       <c r="A64" s="5">
         <v>75</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.8">
+    <row r="65" spans="1:4" ht="13.7">
       <c r="A65" s="5">
         <v>76</v>
       </c>
@@ -3522,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.8">
+    <row r="66" spans="1:4" ht="13.7">
       <c r="A66" s="5">
         <v>77</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.8">
+    <row r="67" spans="1:4" ht="13.7">
       <c r="A67" s="5">
         <v>78</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.8">
+    <row r="68" spans="1:4" ht="13.7">
       <c r="A68" s="5">
         <v>79</v>
       </c>
@@ -3577,9 +3583,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1025" width="10.5"/>
+    <col min="1" max="1025" width="10.46875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3715,15 +3721,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="18.109375"/>
-    <col min="2" max="2" width="19.1640625"/>
-    <col min="3" max="3" width="21.1640625"/>
-    <col min="4" max="1025" width="13.33203125"/>
+    <col min="1" max="1" width="18.1171875"/>
+    <col min="2" max="2" width="19.17578125"/>
+    <col min="3" max="3" width="21.17578125"/>
+    <col min="4" max="1025" width="13.3515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8">
+    <row r="1" spans="1:6" ht="13.7">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -3739,7 +3745,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="13.8">
+    <row r="2" spans="1:6" ht="13.7">
       <c r="A2" s="9">
         <v>11</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.7">
       <c r="A3" s="9">
         <v>-11</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8">
+    <row r="4" spans="1:6" ht="13.7">
       <c r="A4" s="9">
         <v>11</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6" ht="13.7">
       <c r="A5" s="9">
         <v>9</v>
       </c>
@@ -3795,7 +3801,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13.7">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13.7">
       <c r="A7" s="9">
         <v>20</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13.7">
       <c r="A8" s="9">
         <v>11</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13.7">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13.7">
       <c r="A10" s="9">
         <v>-15</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="13.7">
       <c r="A11" s="9">
         <v>0</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="13.7">
       <c r="A12" s="9">
         <v>0</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13.7">
       <c r="A13" s="9">
         <v>3</v>
       </c>
@@ -3907,7 +3913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="13.7">
       <c r="A14" s="9">
         <v>-2</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13.7">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="13.7">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="13.7">
       <c r="A17" s="9">
         <v>-2</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="13.7">
       <c r="A18" s="9">
         <v>-5</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8">
+    <row r="19" spans="1:4" ht="13.7">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8">
+    <row r="20" spans="1:4" ht="13.7">
       <c r="A20" s="9">
         <v>-5</v>
       </c>
@@ -4005,7 +4011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8">
+    <row r="21" spans="1:4" ht="13.7">
       <c r="A21" s="9">
         <v>-6</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.8">
+    <row r="22" spans="1:4" ht="13.7">
       <c r="A22" s="9">
         <v>12</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8">
+    <row r="23" spans="1:4" ht="13.7">
       <c r="A23" s="9">
         <v>7</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8">
+    <row r="24" spans="1:4" ht="13.7">
       <c r="A24" s="9">
         <v>-2</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.8">
+    <row r="25" spans="1:4" ht="13.7">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8">
+    <row r="26" spans="1:4" ht="13.7">
       <c r="A26" s="9">
         <v>11</v>
       </c>
@@ -4089,7 +4095,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8">
+    <row r="27" spans="1:4" ht="13.7">
       <c r="A27" s="9">
         <v>-4</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8">
+    <row r="28" spans="1:4" ht="13.7">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -4117,7 +4123,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8">
+    <row r="29" spans="1:4" ht="13.7">
       <c r="A29" s="9">
         <v>7</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8">
+    <row r="30" spans="1:4" ht="13.7">
       <c r="A30" s="9">
         <v>-2</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.8">
+    <row r="31" spans="1:4" ht="13.7">
       <c r="A31" s="9">
         <v>17</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.8">
+    <row r="32" spans="1:4" ht="13.7">
       <c r="A32" s="9">
         <v>2</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.8">
+    <row r="33" spans="1:4" ht="13.7">
       <c r="A33" s="9">
         <v>6</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.8">
+    <row r="34" spans="1:4" ht="13.7">
       <c r="A34" s="9">
         <v>6</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.8">
+    <row r="35" spans="1:4" ht="13.7">
       <c r="A35" s="9">
         <v>13</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.8">
+    <row r="36" spans="1:4" ht="13.7">
       <c r="A36" s="9">
         <v>7</v>
       </c>
@@ -4229,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.8">
+    <row r="37" spans="1:4" ht="13.7">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -4243,7 +4249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.8">
+    <row r="38" spans="1:4" ht="13.7">
       <c r="A38" s="9">
         <v>16</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.8">
+    <row r="39" spans="1:4" ht="13.7">
       <c r="A39" s="9">
         <v>8</v>
       </c>
@@ -4271,7 +4277,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.8">
+    <row r="40" spans="1:4" ht="13.7">
       <c r="A40" s="9">
         <v>-12</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8">
+    <row r="41" spans="1:4" ht="13.7">
       <c r="A41" s="9">
         <v>6</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.8">
+    <row r="42" spans="1:4" ht="13.7">
       <c r="A42" s="9">
         <v>4</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.8">
+    <row r="43" spans="1:4" ht="13.7">
       <c r="A43" s="9">
         <v>1</v>
       </c>
@@ -4327,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.8">
+    <row r="44" spans="1:4" ht="13.7">
       <c r="A44" s="9">
         <v>-4</v>
       </c>
@@ -4341,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8">
+    <row r="45" spans="1:4" ht="13.7">
       <c r="A45" s="9">
         <v>7</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.8">
+    <row r="46" spans="1:4" ht="13.7">
       <c r="A46" s="9">
         <v>4</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.8">
+    <row r="47" spans="1:4" ht="13.7">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.8">
+    <row r="48" spans="1:4" ht="13.7">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.8">
+    <row r="49" spans="1:4" ht="13.7">
       <c r="A49" s="9">
         <v>2</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.8">
+    <row r="50" spans="1:4" ht="13.7">
       <c r="A50" s="9">
         <v>3</v>
       </c>
@@ -4425,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8">
+    <row r="51" spans="1:4" ht="13.7">
       <c r="A51" s="9">
         <v>-6</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.8">
+    <row r="52" spans="1:4" ht="13.7">
       <c r="A52" s="9">
         <v>11</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.8">
+    <row r="53" spans="1:4" ht="13.7">
       <c r="A53" s="9">
         <v>16</v>
       </c>
@@ -4467,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.8">
+    <row r="54" spans="1:4" ht="13.7">
       <c r="A54" s="9">
         <v>18</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.8">
+    <row r="55" spans="1:4" ht="13.7">
       <c r="A55" s="9">
         <v>-4</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.8">
+    <row r="56" spans="1:4" ht="13.7">
       <c r="A56" s="9">
         <v>-2</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.8">
+    <row r="57" spans="1:4" ht="13.7">
       <c r="A57" s="9">
         <v>3</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.8">
+    <row r="58" spans="1:4" ht="13.7">
       <c r="A58" s="9">
         <v>-1</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.8">
+    <row r="59" spans="1:4" ht="13.7">
       <c r="A59" s="9">
         <v>-16</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.8">
+    <row r="60" spans="1:4" ht="13.7">
       <c r="A60" s="9">
         <v>1</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.8">
+    <row r="61" spans="1:4" ht="13.7">
       <c r="A61" s="9">
         <v>17</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.8">
+    <row r="62" spans="1:4" ht="13.7">
       <c r="A62" s="9">
         <v>-1</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.8">
+    <row r="63" spans="1:4" ht="13.7">
       <c r="A63" s="9">
         <v>-9</v>
       </c>
@@ -4607,7 +4613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.8">
+    <row r="64" spans="1:4" ht="13.7">
       <c r="A64" s="9">
         <v>1</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.8">
+    <row r="65" spans="1:4" ht="13.7">
       <c r="A65" s="9">
         <v>12</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.8">
+    <row r="66" spans="1:4" ht="13.7">
       <c r="A66" s="9">
         <v>-1</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.8">
+    <row r="67" spans="1:4" ht="13.7">
       <c r="A67" s="9">
         <v>18</v>
       </c>
@@ -4663,7 +4669,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.8">
+    <row r="68" spans="1:4" ht="13.7">
       <c r="A68" s="9">
         <v>-9</v>
       </c>
@@ -4687,22 +4693,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="14.5546875"/>
-    <col min="2" max="2" width="16.44140625"/>
+    <col min="1" max="1" width="14.52734375"/>
+    <col min="2" max="2" width="16.41015625"/>
     <col min="3" max="3" width="17"/>
-    <col min="4" max="4" width="18.33203125"/>
-    <col min="5" max="5" width="16.71875"/>
-    <col min="6" max="6" width="29.71875"/>
-    <col min="7" max="1025" width="11.21875"/>
+    <col min="4" max="4" width="18.3515625"/>
+    <col min="5" max="5" width="16.703125"/>
+    <col min="6" max="6" width="29.703125"/>
+    <col min="7" max="1025" width="11.234375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8">
+    <row r="1" spans="1:6" ht="13.7">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -4718,7 +4724,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="13.8">
+    <row r="2" spans="1:6" ht="13.7">
       <c r="A2" s="11">
         <f>AVERAGE(diffTour!A2:A68)</f>
         <v>3.3283582089552239</v>
@@ -4738,7 +4744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="13.7">
       <c r="A3" s="13">
         <f>STDEV(diffTour!A2:A68)</f>
         <v>8.1786641490943737</v>
@@ -4759,14 +4765,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8">
+    <row r="4" spans="1:6" ht="13.7">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6" ht="13.7">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13.7">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13.7">
       <c r="A8" s="17" t="s">
         <v>67</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13.7">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>
